--- a/Design Engineeirng/Plumbing/Plumbing_BOM.xlsx
+++ b/Design Engineeirng/Plumbing/Plumbing_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\Woodies-Rockets\Design Engineeirng\Plumbing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7879D990-CB46-4FB2-B7DA-42F8CE9FB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1367E-8E5D-4032-8755-923B091627B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3A3007-0DD5-4A32-9A5B-328A928B7F55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DD3A3007-0DD5-4A32-9A5B-328A928B7F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Plumbing Possible Solutions</t>
   </si>
@@ -126,13 +126,122 @@
   </si>
   <si>
     <t>NP-PV-2540-1000</t>
+  </si>
+  <si>
+    <t>L27DV Faber Cylinder</t>
+  </si>
+  <si>
+    <t>Pressure Vessel (N2O)</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Aluminum? SS?</t>
+  </si>
+  <si>
+    <t>Pressure Vessel (IPA)</t>
+  </si>
+  <si>
+    <t>IPA Properties</t>
+  </si>
+  <si>
+    <t>22 CUFT Aluminum Oxygen Cylinder</t>
+  </si>
+  <si>
+    <t>0.750 UNF</t>
+  </si>
+  <si>
+    <t>2.5 LB Aluminum CO2 Cylinder</t>
+  </si>
+  <si>
+    <t>0-1000 PSI High Accuracy Pressure Transducers</t>
+  </si>
+  <si>
+    <t>Pressure Transducer</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <t>Pressure Vessels</t>
+  </si>
+  <si>
+    <t>Pressure Sensors</t>
+  </si>
+  <si>
+    <t>Fluid Interface</t>
+  </si>
+  <si>
+    <t>Electrical Interface</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>0.5-4.5V Linear Output for 4-20mA</t>
+  </si>
+  <si>
+    <t>1/4"-18 or 1/8"-27 NPT</t>
+  </si>
+  <si>
+    <t>316 SS</t>
+  </si>
+  <si>
+    <t>0-1500 PSI High Accuracy Pressure Transducers</t>
+  </si>
+  <si>
+    <t>0-1500</t>
+  </si>
+  <si>
+    <t>High Precision Stainless Pressure Transducer</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>0.5-4.5V Linear Output</t>
+  </si>
+  <si>
+    <t>Pressure Range (psi)</t>
+  </si>
+  <si>
+    <t>G 1/4"</t>
+  </si>
+  <si>
+    <t>1000 PSI Pressure Transducer Sensor</t>
+  </si>
+  <si>
+    <t>1/8"-27 NPT</t>
+  </si>
+  <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>Low Cost IOT Small Pressure Sensor</t>
+  </si>
+  <si>
+    <t>0.5, 1, 2%</t>
+  </si>
+  <si>
+    <t>12C, SPI, 0.2-2.9V</t>
+  </si>
+  <si>
+    <t>0-15 MPa</t>
+  </si>
+  <si>
+    <t>G1/4, M12*1.5, 1/4NPT, 7/16-20UNF female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +281,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0C0A09"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,21 +325,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,143 +711,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007770A0-0FAA-435F-B9E3-90967E275811}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="O1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="O2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>5.0525000000000002</v>
+      </c>
+      <c r="N3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="O3">
+        <v>785.1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="T3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3">
-        <f>((D3^2)/4*E3*PI())*(0.000016387)</f>
-        <v>1.1261529740644737E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <f>F3*$R$3</f>
-        <v>0.88433414594360926</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1">
-        <v>455</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="O3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>5.05</v>
-      </c>
-      <c r="Q3">
-        <v>293.13</v>
-      </c>
-      <c r="R3">
-        <v>785.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -702,15 +873,15 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
-        <f>((D4^2)/4*E4*PI())*(0.000016387)</f>
-        <v>1.6892294610967105E-3</v>
+        <f t="shared" ref="F4:F9" si="0">((D4^2)/4*E4*PI())*(0.000016387)</f>
+        <v>1.1261529740644737E-3</v>
       </c>
       <c r="G4" s="3">
-        <f>F4*$R$3</f>
-        <v>1.3265012189154137</v>
+        <f t="shared" ref="G4:G11" si="1">F4*$O$3</f>
+        <v>0.88414269993801831</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>24</v>
@@ -719,25 +890,25 @@
         <v>7</v>
       </c>
       <c r="J4" s="1">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="O4" s="6" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="P4">
-        <v>5.05</v>
-      </c>
-      <c r="Q4">
-        <v>293.13</v>
-      </c>
-      <c r="R4">
-        <v>157.87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
+      <c r="M4">
+        <v>5.0525000000000002</v>
+      </c>
+      <c r="N4">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="O4">
+        <v>157.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -749,15 +920,15 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="3">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
-        <f>((D5^2)/4*E5*PI())*(0.000016387)</f>
-        <v>3.2175799258984963E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.6892294610967105E-3</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G8" si="0">F5*$R$3</f>
-        <v>2.5266689884103122</v>
+        <f t="shared" si="1"/>
+        <v>1.3262140499070274</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>24</v>
@@ -766,14 +937,13 @@
         <v>7</v>
       </c>
       <c r="J5" s="1">
-        <v>525</v>
+        <v>395</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -788,12 +958,12 @@
         <v>40</v>
       </c>
       <c r="F6" s="3">
-        <f>((D6^2)/4*E6*PI())*(0.000016387)</f>
+        <f t="shared" si="0"/>
         <v>3.2175799258984963E-3</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5266689884103122</v>
+        <f t="shared" si="1"/>
+        <v>2.5261219998229096</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
@@ -802,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="J6" s="1">
-        <v>690</v>
+        <v>525</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -819,32 +989,31 @@
       <c r="D7" s="3">
         <v>2.5</v>
       </c>
-      <c r="E7" s="1">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <f>((D7^2)/4*E7*PI())*(0.000016387)</f>
-        <v>1.6892294610967105E-3</v>
+      <c r="E7" s="3">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2175799258984963E-3</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3265012189154137</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>2.5261219998229096</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
+      <c r="J7" s="1">
+        <v>690</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>29</v>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -856,15 +1025,15 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="1">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
-        <f>((D8^2)/4*E8*PI())*(0.000016387)</f>
-        <v>3.2175799258984963E-3</v>
-      </c>
-      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>2.5266689884103122</v>
+        <v>1.6892294610967105E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3262140499070274</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
@@ -876,62 +1045,143 @@
         <v>28</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2175799258984963E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5261219998229096</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2640</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5.46</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14.43</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1404000000000001</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>240</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1404000000000001</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1">
+        <v>119.4</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12*T3</f>
+        <v>1.2576000000000001</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1">
+        <v>47.6</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -944,41 +1194,75 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+    <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="18">
+        <v>68</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -986,46 +1270,999 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="18">
+        <v>68</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="19">
+        <v>15.13</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="19">
+        <v>32.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:J14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{E16D5DBC-9F38-4CC1-8BF4-BA3511FC50B6}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{1928499E-DCBA-44C5-ABAE-ECC1290AFEAF}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{B0589001-486A-4321-AC83-583CDBE1D86D}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{AD62A516-A4A1-47BB-A66F-565CE9271D43}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{69401C26-51AE-4647-A039-0CDF85944CEF}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{C662FC4B-BC78-4954-976F-15DFC2CA5D7D}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{E16D5DBC-9F38-4CC1-8BF4-BA3511FC50B6}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{1928499E-DCBA-44C5-ABAE-ECC1290AFEAF}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{B0589001-486A-4321-AC83-583CDBE1D86D}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{AD62A516-A4A1-47BB-A66F-565CE9271D43}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{69401C26-51AE-4647-A039-0CDF85944CEF}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{C662FC4B-BC78-4954-976F-15DFC2CA5D7D}"/>
+    <hyperlink ref="A10" r:id="rId7" display="L27" xr:uid="{A3B3B5EB-6CA3-4440-80AD-C16CFA500D93}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{FBC1EA06-7266-41B4-B417-6B4D846E93E2}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{69FEDAFF-C60E-4736-B5F5-44AD8FA93118}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{1DC4869A-A00F-4469-91F9-A939C0418849}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{79D6F5E9-B4B9-42DE-9451-F2266F9E8B86}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{7B7BBBC6-AB75-449B-859B-E43C44AA0ADB}"/>
+    <hyperlink ref="A19" r:id="rId13" xr:uid="{2053F698-DB47-418F-AED5-AEBCD8438F88}"/>
+    <hyperlink ref="A20" r:id="rId14" xr:uid="{5BE5F0E1-C2D4-478F-B4B7-8BFDDAC304EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>